--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1697816.0223638</v>
+        <v>-1699766.24819236</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>153.9357036199685</v>
       </c>
       <c r="E2" t="n">
-        <v>185.4906006553385</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>131.8676093654528</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>265.8452559579438</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>89.04055620987418</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>54.89632529172455</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2420467373208</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>140.419490916511</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>139.43630929535</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>153.8564357574052</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>368.5620138613557</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1336,19 +1336,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>26.18618792065419</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>65.25024693872041</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>59.52595089481281</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>50.59638802950274</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>78.39617803113008</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>76.01948181417649</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>188.4590648403943</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.6405752120378</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>206.806426921486</v>
+        <v>220.0883375064762</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463175</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069496</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789589</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287482</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3436,7 +3436,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.917633766893</v>
+        <v>1003.305417328933</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.917633766893</v>
+        <v>634.342900388521</v>
       </c>
       <c r="D2" t="n">
-        <v>1550.917633766893</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2508.920796129066</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2290.286129101129</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2290.286129101129</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2290.286129101129</v>
+        <v>1780.044589368866</v>
       </c>
       <c r="W2" t="n">
-        <v>1937.517473831015</v>
+        <v>1780.044589368866</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.517473831015</v>
+        <v>1780.044589368866</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.517473831015</v>
+        <v>1389.905257393054</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2170.876182214546</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="C4" t="n">
-        <v>2170.876182214546</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.876182214546</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>2112.903044399703</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>2112.903044399703</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>2112.903044399703</v>
       </c>
       <c r="H4" t="n">
         <v>2022.963088632153</v>
@@ -4519,19 +4519,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>2407.975480672791</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W4" t="n">
-        <v>2407.975480672791</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X4" t="n">
-        <v>2352.524647044786</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="Y4" t="n">
-        <v>2352.524647044786</v>
+        <v>2442.464602812336</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.7879015331887</v>
+        <v>1310.22335213854</v>
       </c>
       <c r="C5" t="n">
-        <v>558.825384592777</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1696.823192202662</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>571.3497027553424</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T7" t="n">
-        <v>571.3497027553424</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U7" t="n">
-        <v>571.3497027553424</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>513.840561024597</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.840561024597</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.840561024597</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>433.1733450557858</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C8" t="n">
-        <v>433.1733450557858</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>433.1733450557858</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>433.1733450557858</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>426.2278443065823</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X8" t="n">
-        <v>1209.912517095719</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y8" t="n">
-        <v>819.7731851199076</v>
+        <v>2478.514423990285</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>672.2613701907085</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>672.2613701907085</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>672.2613701907085</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>672.2613701907085</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V10" t="n">
-        <v>417.5768819848216</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W10" t="n">
-        <v>417.5768819848216</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X10" t="n">
-        <v>417.5768819848216</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.5768819848216</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,46 +5024,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L12" t="n">
-        <v>940.1463453738957</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.0189678006951</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>507.0827848727882</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="U13" t="n">
-        <v>904.0085186987125</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="V13" t="n">
-        <v>904.0085186987125</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W13" t="n">
-        <v>904.0085186987125</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X13" t="n">
-        <v>676.0189678006951</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.0189678006951</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5261,19 +5261,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5294,28 +5294,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590536</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>678.2225136306378</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C16" t="n">
-        <v>509.2863307027309</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.653108502425</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1308.653108502425</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1308.653108502425</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1308.653108502425</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1308.653108502425</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>1080.663557604408</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>859.8709784608775</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,16 +5516,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>154.3878371814097</v>
+        <v>181.9314425141218</v>
       </c>
       <c r="K18" t="n">
-        <v>303.4575213834695</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L18" t="n">
-        <v>550.2226492899335</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698952</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1308.553578799928</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1019.424940013486</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>764.7404518075996</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>475.3232817706389</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1306.350032969985</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1306.350032969985</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1017.221394183544</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>762.5369059776569</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>473.1197359406963</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,10 +5990,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,31 +6002,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103133</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6473,10 +6473,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103133</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,7 +6652,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,25 +7567,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254963</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649699</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L12" t="n">
-        <v>283.6093329825489</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.83804904622848</v>
+        <v>43.65987261462463</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>223.6742649934478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200.7473380007145</v>
       </c>
       <c r="E2" t="n">
-        <v>196.4397694169233</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182108</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.08221638637283</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>226.7114015037645</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>129.2355921524345</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>119.5246319524732</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>70.41448083239268</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>33.08849621799493</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>7.280234771565489</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>79.43092547709136</v>
+        <v>66.14901489210118</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.862155085169411e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016744</v>
+        <v>77466.06243016745</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642831</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642833</v>
-      </c>
       <c r="E2" t="n">
+        <v>78205.81194754178</v>
+      </c>
+      <c r="F2" t="n">
         <v>78205.81194754176</v>
       </c>
-      <c r="F2" t="n">
-        <v>78205.81194754173</v>
-      </c>
       <c r="G2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="H2" t="n">
         <v>78205.81194754172</v>
       </c>
-      <c r="H2" t="n">
-        <v>78205.81194754178</v>
-      </c>
       <c r="I2" t="n">
-        <v>78205.81194754172</v>
+        <v>78205.81194754175</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.1769864285</v>
+        <v>82104.17698642846</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642828</v>
@@ -26344,16 +26344,16 @@
         <v>82104.17698642834</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130302.1274369501</v>
+        <v>130302.1274369502</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,25 +26427,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="K4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275957</v>
@@ -26454,10 +26454,10 @@
         <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,13 +26485,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725663.0222847366</v>
+        <v>-725778.9751486431</v>
       </c>
       <c r="C6" t="n">
+        <v>-157529.8593282037</v>
+      </c>
+      <c r="D6" t="n">
         <v>-157529.8593282038</v>
       </c>
-      <c r="D6" t="n">
-        <v>-157529.8593282037</v>
-      </c>
       <c r="E6" t="n">
-        <v>-553987.2200995102</v>
+        <v>-554084.6792254822</v>
       </c>
       <c r="F6" t="n">
-        <v>-28827.18362261396</v>
+        <v>-28924.64274858616</v>
       </c>
       <c r="G6" t="n">
-        <v>-28827.18362261403</v>
+        <v>-28924.64274858616</v>
       </c>
       <c r="H6" t="n">
-        <v>-28827.18362261396</v>
+        <v>-28924.64274858619</v>
       </c>
       <c r="I6" t="n">
-        <v>-28827.18362261401</v>
+        <v>-28924.64274858615</v>
       </c>
       <c r="J6" t="n">
-        <v>-284004.1169926619</v>
+        <v>-284004.116992662</v>
       </c>
       <c r="K6" t="n">
         <v>-53075.38569635669</v>
       </c>
       <c r="L6" t="n">
-        <v>-53075.38569635664</v>
+        <v>-53075.38569635662</v>
       </c>
       <c r="M6" t="n">
         <v>-187876.4009301938</v>
       </c>
       <c r="N6" t="n">
-        <v>-53075.38569635662</v>
+        <v>-53075.38569635659</v>
       </c>
       <c r="O6" t="n">
         <v>-107580.8978000691</v>
       </c>
       <c r="P6" t="n">
-        <v>-53075.38569635657</v>
+        <v>-53075.38569635664</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
@@ -26722,7 +26722,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>42.54810344351873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>61.90700251219107</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>67.13033263192096</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>170.8133300973126</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>27.44099488336218</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>245.8184477395426</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>40.39567088658728</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>20.57645329849123</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>228.8774059060754</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>45.22215615943929</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>120.4790040595037</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>221.0316273032573</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.602510716717613e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.531752999057062e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L12" t="n">
-        <v>532.8670379385733</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>57.74822800113516</v>
+        <v>85.57005156953132</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>472.9319699494721</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36762,13 +36762,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>215.6591577951388</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
